--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2013 (F13).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2013 (F13).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,434 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Call of the Conclave</t>
+          <t>('Call of the Conclave', ['{G}{W}', 'Sorcery', 'Create a 3/3 green Centaur creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{G}{W}</t>
+          <t>('Dimir Charm', ['{U}{B}', 'Instant', 'Choose one —', '• Counter target sorcery spell.', '• Destroy target creature with power 2 or less.', '• Look at the top three cards of target player’s library. Put one back and the rest into that player’s graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Experiment One', ['{G}', 'Creature — Human Ooze', 'Evolve (Whenever a creature enters the battlefield under your control, if that creature has greater power or toughness than this creature, put a +1/+1 counter on this creature.)', 'Remove two +1/+1 counters from Experiment One: Regenerate Experiment One.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Create a 3/3 green Centaur creature token.</t>
+          <t>('Farseek', ['{1}{G}', 'Sorcery', 'Search your library for a Plains, Island, Swamp, or Mountain card and put it onto the battlefield tapped. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dimir Charm</t>
+          <t>('Ghor-Clan Rampager', ['{2}{R}{G}', 'Creature — Beast', 'Trample', 'Bloodrush — {R}{G}, Discard Ghor-Clan Rampager: Target attacking creature gets +4/+4 and gains trample until end of turn.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{U}{B}</t>
+          <t>('Grisly Salvage', ['{B}{G}', 'Instant', 'Reveal the top five cards of your library. You may put a creature or land card from among them into your hand. Put the rest into your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Izzet Charm', ['{U}{R}', 'Instant', 'Choose one —', '• Counter target noncreature spell unless its controller pays {2}.', '• Izzet Charm deals 2 damage to target creature.', '• Draw two cards, then discard two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Choose one —</t>
+          <t>("Judge's Familiar", ['{W/U}', 'Creature — Bird', 'Flying', 'Sacrifice Judge’s Familiar: Counter target instant or sorcery spell unless its controller pays {1}.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>• Counter target sorcery spell.</t>
+          <t>('Rakdos Cackler', ['{B/R}', 'Creature — Devil', 'Unleash (You may have this creature enter the battlefield with a +1/+1 counter on it. It can’t block as long as it has a +1/+1 counter on it.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>• Destroy target creature with power 2 or less.</t>
+          <t>('Reliquary Tower', ['Land', 'You have no maximum hand size.', '{T}: Add {C}.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>• Look at the top three cards of target player’s library. Put one back and the rest into that player’s graveyard.</t>
+          <t>('Searing Spear', ['{1}{R}', 'Instant', 'Searing Spear deals 3 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Experiment One</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Creature — Human Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Evolve (Whenever a creature enters the battlefield under your control, if that creature has greater power or toughness than this creature, put a +1/+1 counter on this creature.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Remove two +1/+1 counters from Experiment One: Regenerate Experiment One.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Farseek</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Search your library for a Plains, Island, Swamp, or Mountain card and put it onto the battlefield tapped. Then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Ghor-Clan Rampager</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{2}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Bloodrush — {R}{G}, Discard Ghor-Clan Rampager: Target attacking creature gets +4/+4 and gains trample until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Grisly Salvage</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{B}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Reveal the top five cards of your library. You may put a creature or land card from among them into your hand. Put the rest into your graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Izzet Charm</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{U}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Choose one —</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>• Counter target noncreature spell unless its controller pays {2}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>• Izzet Charm deals 2 damage to target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>• Draw two cards, then discard two cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Judge's Familiar</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{W/U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Creature — Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Sacrifice Judge’s Familiar: Counter target instant or sorcery spell unless its controller pays {1}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Rakdos Cackler</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>{B/R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Creature — Devil</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Unleash (You may have this creature enter the battlefield with a +1/+1 counter on it. It can’t block as long as it has a +1/+1 counter on it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Reliquary Tower</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>You have no maximum hand size.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Searing Spear</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Searing Spear deals 3 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Sin Collector</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>{1}{W}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Creature — Human Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>When Sin Collector enters the battlefield, target opponent reveals their hand. You choose an instant or sorcery card from it and exile that card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2/1</t>
+          <t>('Sin Collector', ['{1}{W}{B}', 'Creature — Human Cleric', 'When Sin Collector enters the battlefield, target opponent reveals their hand. You choose an instant or sorcery card from it and exile that card.', '2/1'])</t>
         </is>
       </c>
     </row>
